--- a/raspboard/DueUpload/connection.xlsx
+++ b/raspboard/DueUpload/connection.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_pan_file\_my_nut\projects\behavior_box\programe\raspboard\ArduinoUploading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_pan_file\_my_nut\projects\behavior_box\program\raspboard\DueUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
-    <t>raspberry</t>
-  </si>
-  <si>
     <t>arduino</t>
   </si>
   <si>
@@ -50,36 +47,12 @@
     <t>reset</t>
   </si>
   <si>
-    <t>BCM04</t>
-  </si>
-  <si>
-    <t>BCM05</t>
-  </si>
-  <si>
-    <t>BCM06</t>
-  </si>
-  <si>
-    <t>BCM07</t>
-  </si>
-  <si>
     <t>TX(rasp-&gt; arduino)</t>
   </si>
   <si>
     <t>RX(rasp-&gt; arduino)</t>
   </si>
   <si>
-    <t>BCM14</t>
-  </si>
-  <si>
-    <t>BCM15</t>
-  </si>
-  <si>
-    <t>BCM00</t>
-  </si>
-  <si>
-    <t>BCM01</t>
-  </si>
-  <si>
     <t>TX0</t>
   </si>
   <si>
@@ -99,6 +72,33 @@
   </si>
   <si>
     <t>16U2_ERA_PB7</t>
+  </si>
+  <si>
+    <t>raspberry/wiringPi</t>
+  </si>
+  <si>
+    <t>BCM04/Pi07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCM05/Pi21 </t>
+  </si>
+  <si>
+    <t>BCM06/Pi22</t>
+  </si>
+  <si>
+    <t>BCM07/Pi11</t>
+  </si>
+  <si>
+    <t>BCM14/Pi15</t>
+  </si>
+  <si>
+    <t>BCM15/Pi16</t>
+  </si>
+  <si>
+    <t>BCM00/Pi30</t>
+  </si>
+  <si>
+    <t>BCM01/Pi31</t>
   </si>
 </sst>
 </file>
@@ -454,109 +454,110 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
